--- a/Excel/Credit Cards.xlsx
+++ b/Excel/Credit Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A8/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="277" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{003E8D21-7414-4DAD-AF58-BDEB801F968F}"/>
+  <xr:revisionPtr revIDLastSave="288" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{989F684D-0A02-42BC-A19B-901CE86EA4B2}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="1536" windowWidth="10476" windowHeight="10164" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1332" windowWidth="17280" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,9 +217,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="187" formatCode="&quot;฿&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;฿&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,8 +259,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -280,10 +280,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -321,7 +325,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -427,7 +431,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -569,7 +573,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -579,23 +583,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="20" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -609,7 +613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -626,7 +630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -637,7 +641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -654,7 +658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -668,7 +672,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
@@ -676,7 +680,7 @@
         <v>242881</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
@@ -684,7 +688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -692,7 +696,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -700,7 +704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -711,7 +715,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
@@ -719,7 +723,7 @@
         <v>640.92999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
@@ -727,7 +731,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -735,7 +739,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
@@ -747,7 +751,7 @@
         <v>1033.9299999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -764,7 +768,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -775,7 +779,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -789,7 +793,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
@@ -800,7 +804,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
@@ -811,7 +815,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
@@ -822,7 +826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
@@ -833,10 +837,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
@@ -845,13 +849,13 @@
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3">
-        <v>3257.14</v>
+        <v>3601.31</v>
       </c>
       <c r="G24" s="3">
-        <v>508308.94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>521386.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
@@ -860,13 +864,13 @@
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3">
-        <v>2668.2</v>
+        <v>3504.09</v>
       </c>
       <c r="G25" s="3">
-        <v>491417.95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>506204.32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
@@ -879,14 +883,14 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3">
         <f>SUM(F24:F25)</f>
-        <v>5925.34</v>
+        <v>7105.4</v>
       </c>
       <c r="G26" s="3">
         <f>G24+G25</f>
-        <v>999726.89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>1027590.4199999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
@@ -897,19 +901,19 @@
         <v>100729.27</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D28" s="3">
-        <v>100018.76</v>
+        <v>105450.98</v>
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>45</v>
       </c>
@@ -920,7 +924,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
@@ -937,7 +941,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -951,7 +955,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>4</v>
       </c>
@@ -965,7 +969,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -979,12 +983,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>54</v>
       </c>
@@ -998,7 +1002,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>56</v>
       </c>
